--- a/biology/Botanique/Tilleul_de_danse_d'Hilgershausen/Tilleul_de_danse_d'Hilgershausen.xlsx
+++ b/biology/Botanique/Tilleul_de_danse_d'Hilgershausen/Tilleul_de_danse_d'Hilgershausen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tilleul_de_danse_d%27Hilgershausen</t>
+          <t>Tilleul_de_danse_d'Hilgershausen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tilleul de danse d'Hilgershausen, appelé localement Dorflinde (tilleul du village) est un tilleul de danse et un monument naturel situé dans la localité d'Hilgershausen (de), dépendant de la ville de Felsberg, arrondissement de Schwalm-Eder, land de Hesse en Allemagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tilleul_de_danse_d%27Hilgershausen</t>
+          <t>Tilleul_de_danse_d'Hilgershausen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Si le panneau sur place indique que l'arbre fut planté en 1640, la commune estime plutôt qu'il fut mis en terre en 1740[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si le panneau sur place indique que l'arbre fut planté en 1640, la commune estime plutôt qu'il fut mis en terre en 1740.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tilleul_de_danse_d%27Hilgershausen</t>
+          <t>Tilleul_de_danse_d'Hilgershausen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un tilleul à petites feuilles[1] et à étages.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un tilleul à petites feuilles et à étages.
 </t>
         </is>
       </c>
